--- a/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/basicMsgBox.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/basicMsgBox.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\8月分配\SN205-LF0028-180821-console_Output-译文-ZZH处理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYYT\Desktop\京东云\_JDC反馈\云主机反馈\Virtual-Machine-En_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>basic_info</t>
   </si>
@@ -30,15 +30,9 @@
     <t>name</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>name_check_tips</t>
   </si>
   <si>
-    <t>'It can't be blank and only allows for Chinese, numbers, capital and lowercase letters, English underline “_” and hyphen “-”, not more than 32 characters'</t>
-  </si>
-  <si>
     <t>param_check_name</t>
   </si>
   <si>
@@ -66,9 +60,6 @@
     <t>errorTips</t>
   </si>
   <si>
-    <t>'Name only allows for Chinese, numbers, capital and lowercase letters, English underline “_” and hyphen “-”</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -87,10 +78,77 @@
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
+      <t>描述</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
       <t>名称</t>
     </r>
-  </si>
-  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>描述不能超过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>个字符</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -100,19 +158,28 @@
       </rPr>
       <t>描述</t>
     </r>
-  </si>
-  <si>
-    <r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>'</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>不为空且只允许中文、数字、大小写字母、英文下划线</t>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>名称只允许中文、数字、大小写字母、英文下划线</t>
     </r>
     <r>
       <rPr>
@@ -139,6 +206,44 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>“-”'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>名称不为空且只允许中文、数字、大小写字母、英文下划线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“_”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>及中划线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>“-”</t>
     </r>
     <r>
@@ -177,134 +282,15 @@
       </rPr>
       <t>'</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>描述不能超过</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>256</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>个字符</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>描述</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>名称只允许中文、数字、大小写字母、英文下划线</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>“_”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>及中划线</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>“-”'</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name can't be blank and only supports for Chinese, numbers, capital and lowercase letters, English underline “_” and hyphen “-”, not more than 32 characters'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name only supports for Chinese, numbers, capital and lowercase letters, English underline “_” and hyphen “-”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -359,9 +345,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -704,25 +702,24 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="26" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="143.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="26" style="1"/>
+    <col min="2" max="3" width="26" style="2"/>
+    <col min="4" max="16384" width="26" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -730,84 +727,84 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C8 A1:A8" numberStoredAsText="1"/>
+    <ignoredError sqref="C1 A1:A8 C4:C7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>